--- a/electricitypricesuk.xlsx
+++ b/electricitypricesuk.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emre1\Downloads\Energy Price Prediction UK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D364A4-72A7-4E32-B56A-1821DF1934A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B6A59C-45DB-49B6-B350-9B9E5BA2036C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="9.9999999999994451E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>Date</t>
   </si>
@@ -114,7 +115,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -136,6 +137,7 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -152,6 +154,3495 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Oil_Price </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$130</c:f>
+              <c:numCache>
+                <c:formatCode>_("£"* #,##0.00_);_("£"* \(#,##0.00\);_("£"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="129"/>
+                <c:pt idx="0">
+                  <c:v>42.18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43.53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.950000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58.03</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48.43</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46.47</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51.41</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50.88</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50.27</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50.82</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>47.96</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>47.36</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>48.32</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>46.83</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>46.15</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43.54</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42.17</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>49.1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45.64</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45.91</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43.79</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42.71</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41.21</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43.39</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>47.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>49.76</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>49.96</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>51.44</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>62.9</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>51.3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>48.89</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>47.31</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>48.73</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>47.31</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>49.63</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>48.22</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>53.05</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>50.81</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>47.67</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45.15</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44.41</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>41.77</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>39.619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>36.67</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>35.46</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>37.950000000000003</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43.28</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44.81</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>48.43</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43.96</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>39.86</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>42.86</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>40.909999999999997</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43.97</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>41.21</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>41.66</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>42.2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>40.86</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>42.04</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>40.29</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>38.01</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>35.07</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>36.950000000000003</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>33.85</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>34.76</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>34.369999999999997</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>34.61</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>37.51</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>38.4</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>36.51</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>51.13</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>56.03</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>67.540000000000006</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>49.87</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>53.37</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>49.49</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>41.99</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>42.1</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>41.24</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>39.68</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>43.05</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>43.34</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>47.17</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>46.68</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>51.45</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>56.18</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>50.84</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>53.68</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>56.79</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>50.74</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>54.25</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>57.61</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>61.94</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>67.69</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>64.760000000000005</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>62.19</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>64.319999999999993</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>62.55</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>50.27</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44.96</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>43.87</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>41.35</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>39.4</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>41.86</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>39.619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>37.32</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>37.74</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>46.04</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>39.94</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>35.93</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>32.04</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>33.22</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>24.01</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>24.13</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>28.42</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>31.28</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>37.880000000000003</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>45.3</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>44.65</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>46.83</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>59.57</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>90.94</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>56.46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$130</c:f>
+              <c:numCache>
+                <c:formatCode>_("£"* #,##0.00_);_("£"* \(#,##0.00\);_("£"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="129"/>
+                <c:pt idx="0">
+                  <c:v>74.760909090909095</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75.58</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77.039545454545447</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.840476190476195</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82.664761904761903</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85.274761904761903</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>91.446818181818159</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>96.523499999999984</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>103.71631578947368</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>114.64347826086956</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>123.25888888888888</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>114.9890476190476</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>113.83318181818184</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>116.97349999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>110.21954545454547</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>112.83380952380955</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>109.54999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>110.76809523809523</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>107.87049999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>110.68599999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>119.327</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>125.44545454545454</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>119.42166666666668</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>110.33952380952381</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>95.155714285714296</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>102.61857142857141</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>113.35608695652174</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>112.86368421052633</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>111.71086956521739</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>109.05857142857143</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>109.494</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>112.96000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>116.05052631578945</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>108.474</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>102.24818181818182</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>102.55863636363634</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>102.9195</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>107.93318181818178</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>111.28045454545453</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>111.59649999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>109.07652173913043</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>107.79199999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>110.75666666666666</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>108.11772727272728</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>108.90052631578948</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>107.48095238095237</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>107.7552380952381</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>109.53909090909092</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>111.7952380952381</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>106.76818181818182</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>101.60809523809523</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>97.091428571428565</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>87.425217391304372</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>79.437894736842111</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>62.334999999999994</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>47.75950000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>58.095500000000015</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>55.885454545454543</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59.524285714285725</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>64.075000000000003</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61.477727272727286</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>56.561304347826088</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>46.515000000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>47.62318181818182</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>48.43</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44.267619047619057</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>38.005454545454548</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>30.6995</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>32.1815</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>38.210454545454553</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>41.583333333333336</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>46.742380952380941</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>48.247272727272723</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44.951904761904771</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45.843043478260874</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>46.567727272727275</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>49.522380952380956</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44.734090909090916</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>53.308499999999995</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>54.576666666666661</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>54.869500000000002</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>51.589130434782604</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>52.307894736842108</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>50.326521739130442</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>46.368181818181824</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>48.478571428571428</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>51.704347826086966</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>56.152857142857137</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>57.507727272727273</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>62.714090909090899</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>64.373684210526321</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>69.077272727272714</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>65.317499999999981</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>66.016666666666666</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>72.106000000000009</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>76.975238095238112</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>74.404761904761898</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>74.25409090909092</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>72.52826086956523</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>78.89100000000002</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>81.032173913043479</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>64.74818181818182</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>57.362352941176482</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>59.409545454545452</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>63.960499999999989</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>66.138571428571424</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>71.233333333333334</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>71.317727272727296</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>64.220499999999987</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>63.919130434782595</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>59.041818181818186</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>62.826666666666675</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>59.713043478260865</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>63.211904761904762</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>67.217142857142861</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>63.645454545454534</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>55.657000000000004</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>32.011363636363633</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>18.378500000000003</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>29.378947368421056</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>40.266818181818188</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>43.24217391304348</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>44.736000000000004</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>40.909545454545452</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>40.18954545454546</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>42.692380952380951</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>49.993636363636362</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>54.774000000000001</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>62.276499999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-65B8-4EE6-BE00-9E0471D5C454}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1165766272"/>
+        <c:axId val="1208943744"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1165766272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;£&quot;* #,##0.00_);_(&quot;£&quot;* \(#,##0.00\);_(&quot;£&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1208943744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1208943744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;£&quot;* #,##0.00_);_(&quot;£&quot;* \(#,##0.00\);_(&quot;£&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1165766272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Gas_Price </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$130</c:f>
+              <c:numCache>
+                <c:formatCode>_("£"* #,##0.00_);_("£"* \(#,##0.00\);_("£"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="129"/>
+                <c:pt idx="0">
+                  <c:v>42.18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43.53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.950000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58.03</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48.43</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46.47</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51.41</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50.88</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50.27</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50.82</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>47.96</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>47.36</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>48.32</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>46.83</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>46.15</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43.54</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42.17</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>49.1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45.64</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45.91</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43.79</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42.71</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41.21</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43.39</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>47.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>49.76</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>49.96</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>51.44</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>62.9</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>51.3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>48.89</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>47.31</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>48.73</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>47.31</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>49.63</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>48.22</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>53.05</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>50.81</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>47.67</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45.15</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44.41</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>41.77</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>39.619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>36.67</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>35.46</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>37.950000000000003</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43.28</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44.81</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>48.43</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43.96</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>39.86</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>42.86</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>40.909999999999997</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43.97</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>41.21</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>41.66</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>42.2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>40.86</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>42.04</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>40.29</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>38.01</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>35.07</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>36.950000000000003</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>33.85</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>34.76</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>34.369999999999997</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>34.61</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>37.51</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>38.4</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>36.51</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>51.13</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>56.03</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>67.540000000000006</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>49.87</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>53.37</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>49.49</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>41.99</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>42.1</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>41.24</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>39.68</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>43.05</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>43.34</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>47.17</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>46.68</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>51.45</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>56.18</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>50.84</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>53.68</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>56.79</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>50.74</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>54.25</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>57.61</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>61.94</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>67.69</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>64.760000000000005</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>62.19</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>64.319999999999993</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>62.55</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>50.27</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44.96</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>43.87</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>41.35</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>39.4</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>41.86</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>39.619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>37.32</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>37.74</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>46.04</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>39.94</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>35.93</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>32.04</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>33.22</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>24.01</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>24.13</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>28.42</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>31.28</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>37.880000000000003</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>45.3</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>44.65</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>46.83</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>59.57</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>90.94</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>56.46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$130</c:f>
+              <c:numCache>
+                <c:formatCode>_("£"* #,##0.00_);_("£"* \(#,##0.00\);_("£"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="129"/>
+                <c:pt idx="0">
+                  <c:v>2.014409090909091</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9945714285714287</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.943272727272727</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9690476190476192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1640476190476186</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2442857142857142</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3891818181818181</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4480499999999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5575789473684214</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.8376521739130429</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.1776000000000009</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0237142857142865</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.8349545454545448</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.0210999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.8348260869565216</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.7682380952380954</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.772476190476191</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.6294285714285714</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.6338571428571433</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.8224999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.0435500000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.1674090909090906</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.2057499999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.8766818181818179</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.6024285714285713</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.7475238095238099</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.0225652173913047</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.2704210526315793</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.9748260869565226</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.817333333333333</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.7274000000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.852238095238095</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.0528421052631582</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.9136999999999995</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.706</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.7421363636363636</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.7402499999999996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.9235454545454544</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.9329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.7968000000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.685260869565218</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.6734500000000003</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.7357142857142862</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.6724285714285716</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.7955263157894734</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.7535238095238093</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.8964285714285718</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.8623809523809518</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.8958095238095236</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.8021363636363636</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.7054285714285711</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.7209523809523808</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.3982173913043479</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.165578947368421</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.6831363636363634</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.3642500000000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.607105263157895</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.6442272727272729</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.7929999999999997</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.9381000000000004</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.0051363636363635</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.8553181818181814</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.6202380952380953</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.4570476190476187</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.3966363636363637</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.3772500000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.2758636363636362</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.1162105263157895</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.05775</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.195727272727273</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.4484285714285716</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.5625714285714285</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.5056818181818181</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.3488500000000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.378521739130435</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.4410952380952382</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.5216190476190481</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.4615238095238094</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.6318571428571431</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.6136000000000004</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.5478947368421054</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.4919565217391304</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.6093684210526318</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.5366363636363636</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.4448636363636365</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.569421052631579</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.6876086956521741</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.8571999999999995</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.7154090909090909</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.8309999999999997</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.7557000000000003</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.902809523809524</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.8179473684210521</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.8296190476190479</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.9949523809523813</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.1303181818181813</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.0297619047619047</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.0730952380952381</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.076565217391305</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.089684210526316</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.0282608695652176</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.6305500000000002</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.4634999999999996</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.4263333333333332</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.5651578947368423</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.8122380952380954</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2.0390476190476186</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.9178181818181819</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.7403</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.8871428571428572</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.6945909090909093</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.73</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.7282608695652169</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.726388888888889</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.7105714285714282</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.6581428571428571</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.5799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.89086363636363652</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.59266666666666667</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.87630000000000019</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.1208636363636364</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.2197727272727272</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.2480476190476191</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.2268571428571429</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.2013636363636362</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.19</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.3587727272727272</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.5628421052631576</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.7613157894736839</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EFED-40AC-9732-4A314E59C18C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1172707600"/>
+        <c:axId val="1215590576"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1172707600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;£&quot;* #,##0.00_);_(&quot;£&quot;* \(#,##0.00\);_(&quot;£&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1215590576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1215590576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;£&quot;* #,##0.00_);_(&quot;£&quot;* \(#,##0.00\);_(&quot;£&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1172707600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CE7A5A6-D457-489B-8D62-9F98E794121E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{405CD86D-1FF6-48EE-A8B7-1B94F22E7681}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -419,8 +3910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2253,5 +5744,674 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0AA8F2B-4B28-40D3-8067-D1434B61A58E}">
+  <dimension ref="A1:A130"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" style="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9">
+        <v>40330</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
+        <v>40360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>40391</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>40422</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>40452</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>40483</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>40513</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <v>40544</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>40575</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
+        <v>40603</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
+        <v>40634</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
+        <v>40664</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
+        <v>40695</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
+        <v>40725</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9">
+        <v>40756</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
+        <v>40787</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
+        <v>40817</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
+        <v>40848</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
+        <v>40878</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
+        <v>40909</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9">
+        <v>40940</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="9">
+        <v>40969</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="9">
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="9">
+        <v>41030</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="9">
+        <v>41061</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="9">
+        <v>41091</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="9">
+        <v>41122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="9">
+        <v>41153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="9">
+        <v>41183</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="9">
+        <v>41214</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="9">
+        <v>41244</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="9">
+        <v>41275</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="9">
+        <v>41306</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="9">
+        <v>41334</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="9">
+        <v>41365</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="9">
+        <v>41395</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="9">
+        <v>41426</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="9">
+        <v>41456</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="9">
+        <v>41487</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="9">
+        <v>41518</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="9">
+        <v>41548</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="9">
+        <v>41579</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="9">
+        <v>41609</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="9">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="9">
+        <v>41671</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="9">
+        <v>41699</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="9">
+        <v>41730</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="9">
+        <v>41760</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="9">
+        <v>41791</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="9">
+        <v>41821</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="9">
+        <v>41852</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="9">
+        <v>41883</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="9">
+        <v>41913</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="9">
+        <v>41944</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="9">
+        <v>41974</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="9">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="9">
+        <v>42036</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="9">
+        <v>42064</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="9">
+        <v>42095</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="9">
+        <v>42125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="9">
+        <v>42156</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="9">
+        <v>42186</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="9">
+        <v>42217</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="9">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="9">
+        <v>42278</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="9">
+        <v>42309</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="9">
+        <v>42339</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="9">
+        <v>42370</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="9">
+        <v>42401</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="9">
+        <v>42430</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="9">
+        <v>42461</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="9">
+        <v>42491</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="9">
+        <v>42522</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="9">
+        <v>42552</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="9">
+        <v>42583</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="9">
+        <v>42614</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="9">
+        <v>42644</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="9">
+        <v>42675</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="9">
+        <v>42705</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="9">
+        <v>42736</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="9">
+        <v>42767</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="9">
+        <v>42795</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="9">
+        <v>42826</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="9">
+        <v>42856</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="9">
+        <v>42887</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="9">
+        <v>42917</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="9">
+        <v>42948</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="9">
+        <v>42979</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="9">
+        <v>43009</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="9">
+        <v>43040</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="9">
+        <v>43070</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="9">
+        <v>43101</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="9">
+        <v>43132</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="9">
+        <v>43160</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="9">
+        <v>43191</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="9">
+        <v>43221</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="9">
+        <v>43252</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" s="9">
+        <v>43282</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="9">
+        <v>43313</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="9">
+        <v>43344</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" s="9">
+        <v>43374</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" s="9">
+        <v>43405</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" s="9">
+        <v>43435</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" s="9">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" s="9">
+        <v>43497</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" s="9">
+        <v>43525</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" s="9">
+        <v>43556</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" s="9">
+        <v>43586</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" s="9">
+        <v>43617</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" s="9">
+        <v>43647</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" s="9">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="9">
+        <v>43709</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" s="9">
+        <v>43739</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" s="9">
+        <v>43770</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" s="9">
+        <v>43800</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" s="9">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" s="9">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" s="9">
+        <v>43891</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" s="9">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" s="9">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" s="9">
+        <v>43983</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" s="9">
+        <v>44013</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" s="9">
+        <v>44044</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" s="9">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" s="9">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" s="9">
+        <v>44136</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" s="9">
+        <v>44166</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" s="9">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" s="9">
+        <v>44228</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>